--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724810.309951228</v>
+        <v>720670.6035372715</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791247</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10552798.13084913</v>
+        <v>10549848.23389704</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>107.8905770920386</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4360853739836</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056072</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>121.9851530978107</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>203.0747586157703</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.3398633308616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579097</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>113.2237193524627</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.92740900290721</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>268.4623107744673</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>53.76981899187953</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>319.8444572927813</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>40.78297506860748</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.33921922689809</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>171.1886243209706</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>48.63956445460383</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>48.6263362800092</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>93.16084888546006</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1778.292260658348</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1385.116759161279</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N2" t="n">
-        <v>1826.595477606225</v>
+        <v>1572.340732912006</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606225</v>
+        <v>2012.380333804334</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737747</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737747</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737747</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.292260658348</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902142</v>
+        <v>574.3337716287375</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622342</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837145</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0702200837145</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222895</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475494</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>158.7695259828359</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811491</v>
       </c>
       <c r="M3" t="n">
-        <v>1402.159093172764</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182856</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182856</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431033</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>878.2441984008522</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>592.805406642753</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>326.8260614635773</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1650.712604500227</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.537103003158</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198254</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634771</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475494</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737747</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737747</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.207350211624</v>
+        <v>1537.649747726262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>832.7972297032336</v>
+        <v>556.1927859813188</v>
       </c>
       <c r="C6" t="n">
-        <v>682.1429992633258</v>
+        <v>405.538555541411</v>
       </c>
       <c r="D6" t="n">
-        <v>552.0540318848061</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="E6" t="n">
-        <v>415.6075409956939</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.187917143826</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>874.8450714282535</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182856</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>2015.93524953568</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1805.872106214322</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1583.332104585389</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1353.214858718676</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1163.907781068688</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y6" t="n">
-        <v>984.5935641441949</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C7" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D7" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6029008107853</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>500.3226896967376</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>535.6029008107853</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>535.6029008107853</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>535.6029008107853</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>535.6029008107853</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.6029008107853</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1927.160845651305</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1533.985344154236</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.544215370903</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4832,22 +4832,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.655591362702</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.655591362702</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>71.09994889437468</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>71.09994889437468</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>554.6660347926879</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.16403979929</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>937.0300931484951</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816803</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>800.8136995685215</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2956.926156816375</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2956.926156816375</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2686.615622666087</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2686.615622666087</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666087</v>
+        <v>2087.611459508386</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.4129340497491</v>
+        <v>103.3140520158405</v>
       </c>
       <c r="C13" t="n">
-        <v>473.0040912619323</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>389.167253310641</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160374</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1468.107167847944</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1468.107167847944</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1304.184391162372</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.541874550467</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V13" t="n">
-        <v>896.3588045174849</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>684.8246775948564</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>684.8246775948564</v>
+        <v>368.0415815981107</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.8246775948564</v>
+        <v>216.7257955609479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.856237801876</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813862</v>
+        <v>828.6901857016487</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766007</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527724</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411573</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2962.108232106552</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.905472221034</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.249142300285</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.55470836708</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420614</v>
+        <v>160.5279704919325</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542445</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029532</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1395.51041619933</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1231.587639513758</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.945122901853</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.945122901853</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
-        <v>806.4109959792241</v>
+        <v>530.3256286689335</v>
       </c>
       <c r="X16" t="n">
-        <v>806.4109959792241</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y16" t="n">
-        <v>655.0952099420614</v>
+        <v>273.9397140370399</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5601,13 +5601,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,13 +5680,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>806.619390679759</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>84.60386270860994</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445259</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386234</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
         <v>568.1699486069232</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,16 +6151,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,34 +6224,34 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388004</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958355</v>
+        <v>755.8323718938493</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6470,16 @@
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
         <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6549,16 +6549,16 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108114</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2404.684126952458</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038539</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170061</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.409263884299</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>2269.517383258269</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.4160927170996</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076206</v>
+        <v>389.5437325908994</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458846</v>
+        <v>575.8353109291634</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041641</v>
+        <v>870.6770655353553</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,19 +7102,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7178,13 +7178,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7324,34 +7324,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7391,19 +7391,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,10 +7810,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
@@ -7822,34 +7822,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5110292636012</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.7176129102076</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463310104</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>539.0974448753141</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376792</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913393</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801688</v>
+        <v>132.5722416498168</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>466.7144144634705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>106.4717086392233</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>290.9809095353983</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3087888732267</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9495,7 +9495,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9954,7 +9954,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,13 +9963,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167031</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>203.3790190010273</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>96.41746502956599</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091662</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133128</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>23.24444785211874</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189184</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>218.967864354181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.08327430453495</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.6417792913311</v>
       </c>
     </row>
     <row r="17">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>919942.962672753</v>
+        <v>918439.0936383522</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>919942.962672753</v>
+        <v>918439.0936383522</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829444.7773979063</v>
+        <v>829444.7773979062</v>
       </c>
     </row>
     <row r="6">
@@ -26314,40 +26314,40 @@
         <v>396730.7918053849</v>
       </c>
       <c r="C2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="D2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.791805385</v>
       </c>
       <c r="E2" t="n">
-        <v>350589.8515336815</v>
+        <v>350589.8515336813</v>
       </c>
       <c r="F2" t="n">
-        <v>350589.8515336816</v>
+        <v>350589.8515336813</v>
       </c>
       <c r="G2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="H2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="I2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="J2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="K2" t="n">
+        <v>396730.7918053848</v>
+      </c>
+      <c r="L2" t="n">
+        <v>396730.7918053858</v>
+      </c>
+      <c r="M2" t="n">
         <v>396730.7918053849</v>
       </c>
-      <c r="L2" t="n">
-        <v>396730.7918053855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>396730.7918053848</v>
-      </c>
       <c r="N2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="O2" t="n">
         <v>396730.7918053848</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962299</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
         <v>186364.8769761035</v>
@@ -26445,10 +26445,10 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
@@ -26457,7 +26457,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73713.06867543586</v>
+        <v>-69060.84905426102</v>
       </c>
       <c r="C6" t="n">
-        <v>108491.8796164199</v>
+        <v>104797.8079797943</v>
       </c>
       <c r="D6" t="n">
-        <v>100747.2989127993</v>
+        <v>93011.00968940815</v>
       </c>
       <c r="E6" t="n">
-        <v>46675.30987527507</v>
+        <v>46465.57832858539</v>
       </c>
       <c r="F6" t="n">
-        <v>158797.8713493197</v>
+        <v>158588.1398026299</v>
       </c>
       <c r="G6" t="n">
-        <v>104770.8199770798</v>
+        <v>104770.8199770797</v>
       </c>
       <c r="H6" t="n">
         <v>152196.1455137617</v>
       </c>
       <c r="I6" t="n">
-        <v>152196.1455137617</v>
+        <v>152196.1455137618</v>
       </c>
       <c r="J6" t="n">
-        <v>-60845.77208352375</v>
+        <v>-54329.48692895071</v>
       </c>
       <c r="K6" t="n">
-        <v>145956.3771109787</v>
+        <v>145956.3771109786</v>
       </c>
       <c r="L6" t="n">
-        <v>90773.78817635811</v>
+        <v>86724.95096588627</v>
       </c>
       <c r="M6" t="n">
-        <v>109995.3160541386</v>
+        <v>108943.6210429506</v>
       </c>
       <c r="N6" t="n">
-        <v>152196.1455137617</v>
+        <v>152196.1455137616</v>
       </c>
       <c r="O6" t="n">
         <v>124428.4514709904</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26808,28 +26808,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551336</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321489</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407305</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321489</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>273.6961404034603</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,13 +27436,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.2496558295332</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094451</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>1.202334957888809</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.1689878663284</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>270.1859386577432</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682479</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>9.963768703236809</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493854</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>120.8252664362496</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>130.0953788601536</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>268.8844975484791</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28752,16 +28752,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,16 +28983,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,10 +29232,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29296,31 +29296,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
+        <v>86.65052755599578</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29454,7 +29454,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="K28" t="n">
         <v>93.99127447431646</v>
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683160204</v>
       </c>
       <c r="O32" t="n">
-        <v>48.6599273883304</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031573</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>128.2979821082779</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,11 +30882,11 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N2" t="n">
-        <v>250.3925379258172</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928242</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299767699</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>446.7103228260022</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135828</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729471</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260022</v>
+        <v>47.20012879565017</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>316.9893628657432</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>24.02725130588991</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>198.2933506465095</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36048,16 +36048,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>22.71185353989334</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36215,7 +36215,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>313.3380164832371</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,10 +36528,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724872</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851011</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877754</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,13 +36683,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215727</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673912</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>611.0832447409208</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765132</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341167</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>159.4555122371257</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345597</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453562</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>316.4712935610698</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
